--- a/casos de uso/agregar usuario.xlsx
+++ b/casos de uso/agregar usuario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\endJG\Desktop\casos de uso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\endJG\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C978462-3BF5-4B7E-9344-0BE352E4708A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF4E2C7-38CD-407D-B648-0A011037266D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>CASO DE USO</t>
   </si>
@@ -159,6 +159,10 @@
   </si>
   <si>
     <t xml:space="preserve">El SISTEMA verifica que la información este completa y correcta, si es asi la almacena e informa al usuario y actualiza la lista de usuarios. </t>
+  </si>
+  <si>
+    <t>El USUARIO no ingresa todos los datos de los campos obligatorios o ingresa datos incorrectos.
+El SISTEMA manda un mensaje de error para verificar la información.</t>
   </si>
 </sst>
 </file>
@@ -3960,8 +3964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4350,12 +4354,16 @@
       <c r="B18" s="36"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="24"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>4</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
-      <c r="B20" s="25"/>
+      <c r="B20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
